--- a/medicine/Mort/Liste_des_cimetières_militaires_allemands_en_France/Liste_des_cimetières_militaires_allemands_en_France.xlsx
+++ b/medicine/Mort/Liste_des_cimetières_militaires_allemands_en_France/Liste_des_cimetières_militaires_allemands_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_allemands_en_France</t>
+          <t>Liste_des_cimetières_militaires_allemands_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cimetières militaires allemands en France sont un ensemble de cimetières militaires localisés en France où reposent des soldats de l'armée allemande.
 Depuis 1919, le Volksbund Kriegsgräberfürsorge (VDK) ou Commission allemande des sépultures de guerre, est chargé de l'entretien des cimetières militaires allemands. Il gère et entretient aujourd'hui les cimetières des deux guerres mondiales. En 2020, le VDK entretenait 218 cimetières ou monuments allemands en France où sont rassemblés les corps de plus de 960 000 soldats allemands.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_allemands_en_France</t>
+          <t>Liste_des_cimetières_militaires_allemands_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,40 +524,49 @@
           <t>Par département</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les listes des cimetières allemands en France ne prennent pas en compte les soldats allemands enterrés dans un cimetière de la Commonwealth War Graves Commission (près de 17 000 tombes allemandes).
-Ain
-Aisne
-Environ 147 980 soldats allemands sont enterrés dans 26 cimetières militaires allemands.
-Ardennes
-Bouches-du-Rhône
-Calvados
-Charente-Maritime
-Corse
-Côte d'Armor
-Eure
-Finistère
-Ille-et-Vilaine
-Landes
-Loire-Atlantique
-Manche
-Marne
-Meurthe-et-Moselle
-Meuse
-Moselle
-Nièvre
-Nord
-Oise
-Pas-de-Calais
-Bas-Rhin
-Haut-Rhin
-Sarthe
-Seine-Maritime
-Seine-et-Marne
-Yvelines
-Somme
-Vosges</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les listes des cimetières allemands en France ne prennent pas en compte les soldats allemands enterrés dans un cimetière de la Commonwealth War Graves Commission (près de 17 000 tombes allemandes).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_allemands_en_France</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_allemands_en_France</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Par département</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aisne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 147 980 soldats allemands sont enterrés dans 26 cimetières militaires allemands.
+</t>
         </is>
       </c>
     </row>
